--- a/report/reliability/comb/Campus Sertão (Delmiro Gouveia e Santana do Ipanema)-Presencial.xlsx
+++ b/report/reliability/comb/Campus Sertão (Delmiro Gouveia e Santana do Ipanema)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.8010717228615903</v>
+        <v>0.7587809068303638</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8106832222505894</v>
+        <v>0.7735629083929736</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9033602673679183</v>
+        <v>0.88443555918972</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2629966858622414</v>
+        <v>0.20810113073843545</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.282152019952781</v>
+        <v>3.416237608878432</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.019690277792145678</v>
+        <v>0.022236094863862268</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.4134615384615383</v>
+        <v>1.8527284681130836</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7723126266099015</v>
+        <v>0.6328868502750314</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.21936187166948007</v>
+        <v>0.14168788485732536</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7764035608067993</v>
+        <v>0.7592673345380662</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7845365866862289</v>
+        <v>0.7676318775428442</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8793325036129552</v>
+        <v>0.8797131934101443</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.24869336778078316</v>
+        <v>0.2158664862691643</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.6411591862407673</v>
+        <v>3.303516288833384</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.02219362648196331</v>
+        <v>0.022693042470664317</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03970610134891872</v>
+        <v>0.060256357024452305</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.20494242063032297</v>
+        <v>0.18199926022880847</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7825454593125035</v>
+        <v>0.7336289556077378</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7916913687899473</v>
+        <v>0.7466165939029082</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8879109684946555</v>
+        <v>0.86606219473762</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2567853406123302</v>
+        <v>0.19714119941491623</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.8005692044110586</v>
+        <v>2.9465883555800767</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.021617051468755137</v>
+        <v>0.024438809414971622</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.04173566828844083</v>
+        <v>0.05998575567276993</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.217316684874622</v>
+        <v>0.12310697154749482</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7775801340293234</v>
+        <v>0.74125296321194</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7837847302230389</v>
+        <v>0.7531220313523153</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8802947403678304</v>
+        <v>0.8688050052224424</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.24786428902559712</v>
+        <v>0.20268875694552496</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.6250202450158073</v>
+        <v>3.050584203514259</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.022067754590421408</v>
+        <v>0.023706345562009724</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.041074298645827165</v>
+        <v>0.05965503682117354</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.217316684874622</v>
+        <v>0.12310697154749482</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7789525732582159</v>
+        <v>0.7478393766514358</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7877823997532927</v>
+        <v>0.7492775134240123</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8848943511516613</v>
+        <v>0.8639239766495932</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.25231838279802443</v>
+        <v>0.19938478194971965</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.712144510339762</v>
+        <v>2.9884735256760684</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.021936303870191305</v>
+        <v>0.023569592819346813</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04262523633649477</v>
+        <v>0.04872525792489162</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.22140705846433817</v>
+        <v>0.14168788485732536</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7845225345827758</v>
+        <v>0.7249088672924102</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7979721605340326</v>
+        <v>0.7430555804439558</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8680837011517045</v>
+        <v>0.858999744424038</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2642048368603942</v>
+        <v>0.19419239789404807</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.949812870559628</v>
+        <v>2.8918922688721116</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.02130170507217458</v>
+        <v>0.02526364223080943</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.038885468638412794</v>
+        <v>0.04824762139105879</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.22140705846433817</v>
+        <v>0.1383349312082369</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7883838001407856</v>
+        <v>0.7295039033195029</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8001563314201555</v>
+        <v>0.745557400012603</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8699817896663296</v>
+        <v>0.8599776059615303</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.26685783802271085</v>
+        <v>0.19625774896236498</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>4.003911342832786</v>
+        <v>2.930159493927243</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.020915710878180567</v>
+        <v>0.024805953448698244</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03890113499747057</v>
+        <v>0.04838176578558137</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.23432698778952865</v>
+        <v>0.1383349312082369</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8029673287354444</v>
+        <v>0.7635104275015815</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8166541495523497</v>
+        <v>0.7910212699192666</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8963147795204307</v>
+        <v>0.8946219887052601</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.28821814339689117</v>
+        <v>0.2397930809619482</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.454173069957338</v>
+        <v>3.785175982329287</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.019581957570870237</v>
+        <v>0.022390498763046832</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.041142345509481364</v>
+        <v>0.05676390210894007</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.25265674869804855</v>
+        <v>0.18199926022880847</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8142916516926445</v>
+        <v>0.7576428323640019</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8177293195862755</v>
+        <v>0.7732532138734246</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8962629669778255</v>
+        <v>0.8755717928826984</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.28969686769725006</v>
+        <v>0.22129528145916563</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.486345899023164</v>
+        <v>3.41020583833888</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.01825336456334692</v>
+        <v>0.022023220742443474</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04044392669615556</v>
+        <v>0.060523020563477435</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.25265674869804855</v>
+        <v>0.18199926022880847</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7882589861468196</v>
+        <v>0.7723432497891953</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7994424353093926</v>
+        <v>0.7757301234640087</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9026908517271737</v>
+        <v>0.8781305673876219</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2659864629034823</v>
+        <v>0.223748814480134</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.9860996344997606</v>
+        <v>3.458913588600108</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.021194450302820474</v>
+        <v>0.020280331068570474</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.048591487671239574</v>
+        <v>0.06040291426879727</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.217316684874622</v>
+        <v>0.18199926022880847</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7852646451511043</v>
+        <v>0.734801353595041</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7961031829249638</v>
+        <v>0.7555026961132987</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9005831782693153</v>
+        <v>0.8804637723784521</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2619649625117314</v>
+        <v>0.20477267085156006</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.9044414441839423</v>
+        <v>3.0900246510014466</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.021431621555053734</v>
+        <v>0.024644386128028235</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04822296081939405</v>
+        <v>0.06536342921548624</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.21240835108514655</v>
+        <v>0.13330092932740573</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.778310236673161</v>
+        <v>0.7402480208387735</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7901404073877119</v>
+        <v>0.761546892023721</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8799820864583948</v>
+        <v>0.8818705886106689</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.2549994985555845</v>
+        <v>0.21019878988181998</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.7650907330573262</v>
+        <v>3.193696649571363</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.022073116976551496</v>
+        <v>0.023953493426164606</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.04401881805557169</v>
+        <v>0.06481110763407029</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.2017329697308004</v>
+        <v>0.1483119198377873</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7816509522213057</v>
+        <v>0.7235650434869608</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.793054869890703</v>
+        <v>0.7478719587827942</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.882994652400249</v>
+        <v>0.8584447297030164</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.25837024018211713</v>
+        <v>0.19819533666201922</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.8321987546740264</v>
+        <v>2.966238722088473</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.021744515601731823</v>
+        <v>0.02560398400605694</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.044245125904649685</v>
+        <v>0.05984180898865467</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.2017329697308004</v>
+        <v>0.12310697154749482</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7291170261519107</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7520725037838853</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8618299151829905</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.20177935386727577</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.033437255899666</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.025038752200362797</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.060561707936587814</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.12310697154749482</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>234.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6565191128869379</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6846714419135075</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6768509031681565</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5699326764623743</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.1880341880341883</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.2356063926770713</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>234.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5977216427545302</v>
+        <v>0.32808648416756975</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6195556518900132</v>
+        <v>0.44265762256272956</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5922888558898496</v>
+        <v>0.38953189449002384</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4911212202850495</v>
+        <v>0.3037990982525968</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.6794871794871793</v>
+        <v>0.9487179487179487</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.350507039516428</v>
+        <v>0.22104526738747607</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>234.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6577551126531985</v>
+        <v>0.5881935113603509</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6913430063464929</v>
+        <v>0.6259479982705136</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.681602951106525</v>
+        <v>0.6054590080970772</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5830819912890124</v>
+        <v>0.4762471707165231</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.341880341880342</v>
+        <v>3.1880341880341883</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0857041635200912</v>
+        <v>1.2356063926770713</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>234.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6306259348100051</v>
+        <v>0.5370574739499948</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6555010873400892</v>
+        <v>0.5716463519480627</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6342999927443115</v>
+        <v>0.5453443085702574</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5370593315288167</v>
+        <v>0.40432992621697295</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.6538461538461537</v>
+        <v>3.6794871794871793</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2651850845303982</v>
+        <v>1.350507039516428</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>234.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5854506677154937</v>
+        <v>0.5872362023983646</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5598512547267472</v>
+        <v>0.6039869416022553</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5802967499619952</v>
+        <v>0.6293882127872321</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4686577155554042</v>
+        <v>0.5538641427783981</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.6794871794871795</v>
+        <v>0.20085470085470086</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.4397209112915033</v>
+        <v>0.40149842227510074</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>234.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.56611120902382</v>
+        <v>0.6541423203005357</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5385026577635921</v>
+        <v>0.654812012096021</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5575149397689133</v>
+        <v>0.6880118048638586</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.4343931448206609</v>
+        <v>0.5351467726505386</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.7435897435897436</v>
+        <v>0.6794871794871795</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.5621809677600396</v>
+        <v>1.4397209112915033</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>234.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.3707637408700456</v>
+        <v>0.6334903342241898</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.3666171128492094</v>
+        <v>0.6345955541999754</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.304474291818808</v>
+        <v>0.6672420242372912</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.24930631415680174</v>
+        <v>0.49738486131706455</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>3.0042735042735043</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.220349148828333</v>
+        <v>1.5621809677600396</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>234.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.3770988473314715</v>
+        <v>0.08738535802014455</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.3547178760315296</v>
+        <v>0.20845482691085346</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.2934180815880089</v>
+        <v>0.10494441580853009</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.20661254888816902</v>
+        <v>0.06674264116359302</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.4316239316239314</v>
+        <v>0.9700854700854701</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.6822807720957333</v>
+        <v>0.170716720540478</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>234.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5628560622580633</v>
+        <v>0.38210836768934914</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5455145793896977</v>
+        <v>0.3895184681262136</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4670591502791555</v>
+        <v>0.33673597873129135</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.43386388440013424</v>
+        <v>0.2452537267241562</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.188034188034188</v>
+        <v>3.0042735042735043</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.527609279368957</v>
+        <v>1.220349148828333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>234.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5773673205559637</v>
+        <v>0.38895644651388467</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5778754363203786</v>
+        <v>0.36550233460980097</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5051395831683965</v>
+        <v>0.3077739100571805</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.46111048135740523</v>
+        <v>0.19635711300903794</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.1965811965811968</v>
+        <v>3.4316239316239314</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.4186938092062384</v>
+        <v>1.6822807720957333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>234.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6359949065966262</v>
+        <v>0.5986921554424842</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6339262533246626</v>
+        <v>0.5512481937915058</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6175871507076611</v>
+        <v>0.47745625401104363</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5361200809492402</v>
+        <v>0.45830383018869575</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.982905982905983</v>
+        <v>1.188034188034188</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3520476029846669</v>
+        <v>1.527609279368957</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>234.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6046351363374954</v>
+        <v>0.551565427276199</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.606802026816998</v>
+        <v>0.4981352346452552</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5856957217684191</v>
+        <v>0.4220584456279919</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5038916099494763</v>
+        <v>0.41378678606253344</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.1965811965811968</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.4186938092062384</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>234.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6618100577062033</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6156296937461028</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.6038156363222122</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.5529267357441792</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.982905982905983</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3520476029846669</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>234.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6230658126974719</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5805479422510328</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5633563436599638</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.5113274690448099</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.8717948717948718</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.297329455997389</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.09829059829059829</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.008547008547008548</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.36752136752136755</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4017094017094017</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.07264957264957266</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.017094017094017096</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.05982905982905983</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.3247863247863248</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.3803418803418803</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.021367521367521368</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.0811965811965812</v>
+        <v>0.9487179487179487</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.02564102564102564</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3547008547008547</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.44017094017094016</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.07692307692307693</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.021367521367521368</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.02564102564102564</v>
+        <v>0.09829059829059829</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.08974358974358974</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.39316239316239315</v>
+        <v>0.36752136752136755</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.0811965811965812</v>
+        <v>0.4017094017094017</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.3888888888888889</v>
+        <v>0.07264957264957266</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.7991452991452992</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.021367521367521368</v>
+        <v>0.017094017094017096</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.08547008547008547</v>
+        <v>0.3247863247863248</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.06837606837606838</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.02564102564102564</v>
+        <v>0.3803418803418803</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.7991452991452992</v>
       </c>
       <c r="C48" t="n" s="110">
+        <v>0.20085470085470086</v>
+      </c>
+      <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
-      <c r="D48" t="n" s="111">
-        <v>0.029914529914529916</v>
-      </c>
       <c r="E48" t="n" s="112">
-        <v>0.0641025641025641</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.042735042735042736</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.0641025641025641</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.029914529914529916</v>
+        <v>0.7991452991452992</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.15384615384615385</v>
+        <v>0.021367521367521368</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.03418803418803419</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.41025641025641024</v>
+        <v>0.08547008547008547</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.3076923076923077</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.0641025641025641</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
+        <v>0.7991452991452992</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="D50" t="n" s="111">
         <v>0.029914529914529916</v>
       </c>
-      <c r="C50" t="n" s="110">
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="D50" t="n" s="111">
-        <v>0.1794871794871795</v>
-      </c>
       <c r="E50" t="n" s="112">
-        <v>0.09401709401709402</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.07692307692307693</v>
+        <v>0.042735042735042736</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.4658119658119658</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.5512820512820513</v>
+        <v>0.029914529914529916</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.11538461538461539</v>
+        <v>0.9700854700854701</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.05555555555555555</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.14957264957264957</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.1282051282051282</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.20512820512820512</v>
+        <v>0.029914529914529916</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.1452991452991453</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.05982905982905983</v>
+        <v>0.03418803418803419</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.42735042735042733</v>
+        <v>0.41025641025641024</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.1623931623931624</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.2094017094017094</v>
+        <v>0.029914529914529916</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.13247863247863248</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.28205128205128205</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.21794871794871795</v>
+        <v>0.09401709401709402</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.1581196581196581</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.4658119658119658</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.23076923076923078</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.10683760683760683</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.3333333333333333</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.21794871794871795</v>
+        <v>0.14957264957264957</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.1111111111111111</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.20512820512820512</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.1452991452991453</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.05982905982905983</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.42735042735042733</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.1623931623931624</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.2094017094017094</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.13247863247863248</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.28205128205128205</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.21794871794871795</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.1581196581196581</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.10683760683760683</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.21794871794871795</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8701589545309664</v>
+        <v>0.8799759312841406</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8737048805746668</v>
+        <v>0.984175554449715</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8788078980057594</v>
+        <v>0.9775000678901472</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6336312698736953</v>
+        <v>0.9539830488256426</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.917962345260771</v>
+        <v>62.19336730138968</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.014123958379413165</v>
+        <v>0.0024766911952915803</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.465811965811966</v>
+        <v>0.5413105413105413</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.0501920848755122</v>
+        <v>1.1209425284452568</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6509296136314702</v>
+        <v>0.9514892608834291</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8175039701819394</v>
+        <v>0.9815804667275063</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8241314355874992</v>
+        <v>0.9832441163506132</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7714469392025916</v>
+        <v>0.9670404982772349</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6096832128180693</v>
+        <v>0.9670404982772347</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.686064495611019</v>
+        <v>58.68052899654699</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.020771697179720713</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.010234614997893363</v>
-      </c>
+        <v>0.0022930292616181697</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5853569348537937</v>
+        <v>0.9670404982772347</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8459617016772</v>
+        <v>0.628993673914199</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8516865437366942</v>
+        <v>0.9751416827707213</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.813830775498543</v>
+        <v>0.9514892608834291</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.656847806804422</v>
+        <v>0.9514892608834291</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>5.74247654389947</v>
+        <v>39.22798449213518</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.01794477961143455</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.011462594650599798</v>
-      </c>
+        <v>0.008098920652007298</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.7165022924091466</v>
+        <v>0.9514892608834291</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8267666657799533</v>
+        <v>0.6561113930754461</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8266683723333755</v>
+        <v>0.9708860511256552</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7737090894079071</v>
+        <v>0.9434193873162636</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6138642077442039</v>
+        <v>0.9434193873162637</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.7692875412405344</v>
+        <v>33.34779680063251</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.01966118927657685</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.009610097043719538</v>
-      </c>
+        <v>0.008840785141160065</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5853569348537937</v>
+        <v>0.9434193873162637</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8466047297595257</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8501597774140547</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8146595715214765</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6541298521280865</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>5.673775457230248</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.01731364700188593</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.012926882426182968</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.7165022924091466</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>234.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9653059439763645</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9801207119120602</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9617835808140505</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.955511719370219</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.20085470085470086</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.40149842227510074</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>234.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8723578967243815</v>
+        <v>0.9899985901216505</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8726914489707172</v>
+        <v>0.9853858486461706</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8359759566264184</v>
+        <v>0.9764228830262048</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7636434978926451</v>
+        <v>0.9698943877211754</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.1880341880341883</v>
+        <v>0.6794871794871795</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.2356063926770713</v>
+        <v>1.4397209112915033</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>234.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8455916435648679</v>
+        <v>0.9921623239922333</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8311538447835269</v>
+        <v>0.9881180420197366</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7623451452223438</v>
+        <v>0.9820009215399563</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7005743453987017</v>
+        <v>0.9730830089303798</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.6794871794871793</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.350507039516428</v>
+        <v>1.5621809677600396</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>234.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8543996761406251</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8690092692322318</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8307904379054618</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7537265233385884</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.341880341880342</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0857041635200912</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>234.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.832506330969994</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8335475328448938</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7642117393210571</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6921737738353745</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.6538461538461537</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2651850845303982</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.7991452991452992</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.20085470085470086</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.7991452991452992</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.021367521367521368</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.08547008547008547</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.06837606837606838</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.05128205128205128</v>
+        <v>0.7991452991452992</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.09829059829059829</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.008547008547008548</v>
+        <v>0.029914529914529916</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.36752136752136755</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4017094017094017</v>
+        <v>0.042735042735042736</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.07264957264957266</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.017094017094017096</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.05982905982905983</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.3247863247863248</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.3803418803418803</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.021367521367521368</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.0811965811965812</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3547008547008547</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.44017094017094016</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.021367521367521368</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.08974358974358974</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.39316239316239315</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.0811965811965812</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7753232030120545</v>
+        <v>0.6267749674041954</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.7995086779572287</v>
+        <v>0.7394010485836469</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6659845542213287</v>
+        <v>0.6844470439949043</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6659845542213287</v>
+        <v>0.48606499338893877</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>3.987747049653687</v>
+        <v>2.837313982136184</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.026909682146672484</v>
+        <v>0.020453018139159215</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>3.217948717948718</v>
+        <v>2.4686609686609686</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.3279507840701448</v>
+        <v>0.9110228453059498</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6659845542213286</v>
+        <v>0.4332328948291154</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.6659845542213286</v>
+        <v>0.7753232030120545</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.6659845542213286</v>
+        <v>0.7995086779572287</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.443535426461382</v>
+        <v>0.6659845542213287</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.6659845542213286</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6659845542213286</v>
-      </c>
+        <v>0.6659845542213287</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>3.987747049653687</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.026909682146672484</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.6659845542213286</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.443535426461382</v>
+        <v>0.13452839671636774</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6659845542213286</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.443535426461382</v>
-      </c>
+        <v>0.5283053220482306</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.358977531116372</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.3589775311163721</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.1200154395260093</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.021271981528838524</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6659845542213286</v>
+        <v>0.35897753111637215</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.2125059377294123</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.6045533791362916</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.4332328948291152</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.43323289482911553</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>1.5287863070263847</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.025646379339354167</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.4332328948291154</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>234.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8813286557704164</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9126841058716123</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7448221199329109</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6659845542213287</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>3.0042735042735043</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.220349148828333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>234.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.939422788066503</v>
+        <v>0.47686806828040307</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9126841058716123</v>
+        <v>0.7368186393944967</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7448221199329106</v>
+        <v>0.49138194208572217</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.6659845542213284</v>
+        <v>0.42644516884474776</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9700854700854701</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.170716720540478</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>234.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.883505929767027</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8630362384966846</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.7881562747954187</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.682152627089126</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>3.0042735042735043</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.220349148828333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>234.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9353215586209105</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8325081625149241</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7327877058936674</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6705554560645114</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>3.4316239316239314</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.6822807720957333</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.029914529914529916</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9700854700854701</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.029914529914529916</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.15384615384615385</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.03418803418803419</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.41025641025641024</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.3076923076923077</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.0641025641025641</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.029914529914529916</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.15384615384615385</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.1794871794871795</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.09401709401709402</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.07692307692307693</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.4658119658119658</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8907765583896352</v>
+        <v>0.7178853852234652</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8911980445058516</v>
+        <v>0.8495119828243638</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8037486226371963</v>
+        <v>0.7958008984100925</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8037486226371964</v>
+        <v>0.6529805010958332</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>8.191011277860559</v>
+        <v>5.645047351729599</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.014245998710405843</v>
+        <v>0.015316167201190169</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.9273504273504274</v>
+        <v>2.6054131054131053</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.258046986412382</v>
+        <v>0.8511257351154518</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8037486226371964</v>
+        <v>0.6347965324086161</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8037486226371963</v>
+        <v>0.8373043276253274</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8037486226371963</v>
+        <v>0.8392267052409246</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6460118483911901</v>
+        <v>0.7229893287776841</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8037486226371963</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8037486226371963</v>
-      </c>
+        <v>0.7229893287776841</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>5.219938463651794</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.021097017549273147</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8037486226371963</v>
+        <v>0.7229893287776841</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6460118483911901</v>
+        <v>0.3366322117146838</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8037486226371963</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6460118483911901</v>
-      </c>
+        <v>0.7766061645278179</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6347965324086161</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.634796532408616</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>3.4763992609121237</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.02181673145262248</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8037486226371963</v>
+        <v>0.6347965324086161</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.34494451294697925</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7509021937583802</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.601155642101199</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.6011556421011992</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>3.0144873818359543</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.024261180595906973</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.6011556421011992</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>234.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9517825614679528</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9496706330715919</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8513989872640167</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.803748622637196</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.982905982905983</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3520476029846669</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>234.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.947514631959367</v>
+        <v>0.7132256854282649</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9496706330715918</v>
+        <v>0.8501115241215217</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8513989872640167</v>
+        <v>0.716561109304744</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8037486226371962</v>
+        <v>0.666501839828469</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.8717948717948718</v>
+        <v>0.9487179487179487</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.297329455997389</v>
+        <v>0.22104526738747607</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>234.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9183489127366379</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8836425241995015</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8015627573825082</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7392385173229454</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.1880341880341883</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.2356063926770713</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>234.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9337265329393208</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8964328284189165</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8282046507476564</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7491065052482467</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.6794871794871793</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.350507039516428</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.2094017094017094</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.13247863247863248</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.28205128205128205</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.21794871794871795</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.1581196581196581</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9487179487179487</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.10683760683760683</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.21794871794871795</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.09829059829059829</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.008547008547008548</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.36752136752136755</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.4017094017094017</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.07264957264957266</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.017094017094017096</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.05982905982905983</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.3247863247863248</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.3803418803418803</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9815804667275063</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9832441163506132</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9670404982772349</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9670404982772347</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>58.68052899654699</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0022930292616181697</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.7115384615384616</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.488552665943296</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9670404982772347</v>
+      <c r="A6" t="n" s="491">
+        <v>0.5810639266125361</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5821912791490329</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.4106275201915828</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.410627520191583</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.3934397490872417</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.05459374854554807</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.6923076923076923</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.237549416096032</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.41062752019158294</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9670404982772347</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9670404982772347</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9351673253082828</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9670404982772347</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9670404982772347</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9670404982772347</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.41062752019158294</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.41062752019158294</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.1686149603386885</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.41062752019158294</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.41062752019158294</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.41062752019158294</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9351673253082828</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9670404982772347</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9351673253082828</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9670404982772347</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.1686149603386885</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.41062752019158294</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.1686149603386885</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.41062752019158294</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>234.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9910341905449841</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9917258941555461</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9752455648670024</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9670404982772348</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.6794871794871795</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.4397209112915033</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8525574707195045</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8398296018215787</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5381646962270338</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.4106275201915829</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.188034188034188</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.527609279368957</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>234.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9923899445382722</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9917258941555461</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9752455648670023</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9670404982772346</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.7435897435897436</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.5621809677600396</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8266224333365932</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8398296018215787</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5381646962270342</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.4106275201915829</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.1965811965811968</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.4186938092062384</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.7991452991452992</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.021367521367521368</v>
-      </c>
-      <c r="D23" t="n" s="570">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.5512820512820513</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.14957264957264957</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
-      <c r="E23" t="n" s="571">
-        <v>0.08547008547008547</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.06837606837606838</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.7991452991452992</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.029914529914529916</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.0641025641025641</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.042735042735042736</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.0641025641025641</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.20512820512820512</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.1452991452991453</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.05982905982905983</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.42735042735042733</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.1623931623931624</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.5810639266125361</v>
+        <v>0.8907765583896352</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5821912791490329</v>
+        <v>0.8911980445058516</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.4106275201915828</v>
+        <v>0.8037486226371963</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.410627520191583</v>
+        <v>0.8037486226371964</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.3934397490872417</v>
+        <v>8.191011277860559</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.05459374854554807</v>
+        <v>0.014245998710405843</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.6923076923076923</v>
+        <v>1.9273504273504274</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.237549416096032</v>
+        <v>1.258046986412382</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.41062752019158294</v>
+        <v>0.8037486226371964</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.41062752019158294</v>
+        <v>0.8037486226371963</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.41062752019158294</v>
+        <v>0.8037486226371963</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.1686149603386885</v>
+        <v>0.6460118483911901</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.41062752019158294</v>
+        <v>0.8037486226371963</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.41062752019158294</v>
+        <v>0.8037486226371963</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.41062752019158294</v>
+        <v>0.8037486226371963</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.1686149603386885</v>
+        <v>0.6460118483911901</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.41062752019158294</v>
+        <v>0.8037486226371963</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.1686149603386885</v>
+        <v>0.6460118483911901</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.41062752019158294</v>
+        <v>0.8037486226371963</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>234.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8525574707195045</v>
+        <v>0.9517825614679528</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8398296018215787</v>
+        <v>0.9496706330715919</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5381646962270338</v>
+        <v>0.8513989872640167</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.4106275201915829</v>
+        <v>0.803748622637196</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.188034188034188</v>
+        <v>1.982905982905983</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.527609279368957</v>
+        <v>1.3520476029846669</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>234.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8266224333365932</v>
+        <v>0.947514631959367</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8398296018215787</v>
+        <v>0.9496706330715918</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5381646962270342</v>
+        <v>0.8513989872640167</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.4106275201915829</v>
+        <v>0.8037486226371962</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.1965811965811968</v>
+        <v>1.8717948717948718</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.4186938092062384</v>
+        <v>1.297329455997389</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.5512820512820513</v>
+        <v>0.2094017094017094</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.11538461538461539</v>
+        <v>0.13247863247863248</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.05555555555555555</v>
+        <v>0.28205128205128205</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.14957264957264957</v>
+        <v>0.21794871794871795</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.1282051282051282</v>
+        <v>0.1581196581196581</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.20512820512820512</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.1452991452991453</v>
+        <v>0.10683760683760683</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.05982905982905983</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.42735042735042733</v>
+        <v>0.21794871794871795</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.1623931623931624</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8287441646699673</v>
+        <v>0.7976805496873229</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8346262993143535</v>
+        <v>0.8216638661978876</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9127714506428557</v>
+        <v>0.9068651312097895</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.33541175327758144</v>
+        <v>0.3154149391211831</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>5.046910698944008</v>
+        <v>4.607388579532805</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.017333083211200234</v>
+        <v>0.0189199731022404</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.2525641025641026</v>
+        <v>1.667948717948718</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.8532278060437744</v>
+        <v>0.7515066851253214</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.27481133166237826</v>
+        <v>0.26725687102850987</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.8044078282287856</v>
+        <v>0.788662415088986</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.808573495732384</v>
+        <v>0.7999723010388361</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8867300461471431</v>
+        <v>0.8866711123133343</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.3194159958265291</v>
+        <v>0.30765543351984476</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>4.223937008231582</v>
+        <v>3.999307621861676</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.019811671871052497</v>
+        <v>0.020353348680564886</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.03587713632620217</v>
+        <v>0.042732094415987694</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.2702070469718407</v>
+        <v>0.27112095488851956</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.8120077493335683</v>
+        <v>0.7641890911035726</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.8170396623561225</v>
+        <v>0.7933340295848322</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8969384770772927</v>
+        <v>0.8814902015787013</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.3316334777909533</v>
+        <v>0.29899586494800945</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>4.465665470876244</v>
+        <v>3.838725978888138</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.019088609815309146</v>
+        <v>0.021725432869644474</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.03723594769583449</v>
+        <v>0.04346183183234753</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.2771003090764345</v>
+        <v>0.2602224939503196</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.8089217455769608</v>
+        <v>0.771372994719251</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.8117965175824172</v>
+        <v>0.7969239563333923</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8895176078239535</v>
+        <v>0.8828909146367107</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.32398926063826394</v>
+        <v>0.3036353810792224</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>4.313397962430984</v>
+        <v>3.924263748419836</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.01940100190568312</v>
+        <v>0.020954465413288416</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.035434224948857146</v>
+        <v>0.04237710175582917</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.2771003090764345</v>
+        <v>0.2673437245715854</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.8121577612151106</v>
+        <v>0.8020243718315574</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.8167863396728187</v>
+        <v>0.8230505444747428</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8948844322862666</v>
+        <v>0.9054470154523396</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.3312581679563483</v>
+        <v>0.3407236415789368</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>4.458108299425975</v>
+        <v>4.6513313196223045</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.019058859360495905</v>
+        <v>0.019432695759180958</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.03656193557652065</v>
+        <v>0.055136187839511866</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.2771003090764345</v>
+        <v>0.27442667935138026</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.8091826896500396</v>
+        <v>0.7751468951363345</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.8169411117574893</v>
+        <v>0.7997433237645847</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8887617857593367</v>
+        <v>0.8903137898758073</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.3314873969463168</v>
+        <v>0.30735084865165985</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>4.462723004606209</v>
+        <v>3.993591318895315</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.019434351033692805</v>
+        <v>0.02074711306902312</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.039738923734580364</v>
+        <v>0.062255648330733646</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.26360637381524127</v>
+        <v>0.2602224939503196</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.8125086904719709</v>
+        <v>0.7846194559306672</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.8201602916037641</v>
+        <v>0.8061493744020284</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8917685347230564</v>
+        <v>0.8934523876777515</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.3363080124627767</v>
+        <v>0.3160372403575257</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>4.5605072367929305</v>
+        <v>4.158611156994192</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.01911822847165738</v>
+        <v>0.019805316573124548</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.039420481834706596</v>
+        <v>0.060284350182613376</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.28495560538282316</v>
+        <v>0.27073630257752157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.8140525190246071</v>
+        <v>0.7803078143203648</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8238224444547187</v>
+        <v>0.8112103396315528</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8728087366109036</v>
+        <v>0.9086325708931731</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.34191726329141214</v>
+        <v>0.32315052170578273</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>4.67609192274767</v>
+        <v>4.2969002542214</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.01869128105895092</v>
+        <v>0.020713628607390296</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.031687383070391664</v>
+        <v>0.06804572640017321</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.28495560538282316</v>
+        <v>0.25292243278508897</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.8195865573230723</v>
+        <v>0.7887554002538795</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8267494675192463</v>
+        <v>0.8180070961922672</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8753861765748872</v>
+        <v>0.9097346028965713</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.34649957731952963</v>
+        <v>0.33307247742792234</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.771988031904546</v>
+        <v>4.494719733998281</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.0181103805099512</v>
+        <v>0.01963826825538549</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.030736013689246673</v>
+        <v>0.0651617018785399</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.28837107018355</v>
+        <v>0.2602224939503196</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.8209182266970572</v>
+        <v>0.766277161258432</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8274935382275186</v>
+        <v>0.8005163949771108</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9152360095206731</v>
+        <v>0.8810655932083801</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.34767880893136105</v>
+        <v>0.30838090992326195</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.796884300594485</v>
+        <v>4.012943293687009</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.018435455281698886</v>
+        <v>0.021834814715172134</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.044445574599978534</v>
+        <v>0.06278885024019701</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.27389742374569936</v>
+        <v>0.24670798189760507</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.819039194894423</v>
+        <v>0.7720723192835673</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8251148818222567</v>
+        <v>0.805504520103414</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9128422230577381</v>
+        <v>0.8843865252400055</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.34392957161232307</v>
+        <v>0.3151470720196649</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.718039421648544</v>
+        <v>4.14150766142074</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.018527000158062103</v>
+        <v>0.02126423694024662</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.043609362384488246</v>
+        <v>0.0623012700998605</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.26360637381524127</v>
+        <v>0.2602224939503196</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>234.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.7001563088062516</v>
+        <v>0.644446754626647</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7247699264043765</v>
+        <v>0.6646612975911246</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.7116566482151006</v>
+        <v>0.6839524849982402</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.6139513143413522</v>
+        <v>0.6115483565577199</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.1880341880341883</v>
+        <v>0.20085470085470086</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.2356063926770713</v>
+        <v>0.40149842227510074</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>234.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6370679747139817</v>
+        <v>0.7088398470300918</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6553888390952716</v>
+        <v>0.7149771368602048</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6217533354169176</v>
+        <v>0.7417671296057192</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5276440914008556</v>
+        <v>0.5913569629863411</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.6794871794871793</v>
+        <v>0.6794871794871795</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.350507039516428</v>
+        <v>1.4397209112915033</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>234.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6652831218235168</v>
+        <v>0.6813527700647002</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6987991014737924</v>
+        <v>0.688019541223897</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6816430959180254</v>
+        <v>0.7141726525746603</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5846559066785452</v>
+        <v>0.5431392915270904</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.341880341880342</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0857041635200912</v>
+        <v>1.5621809677600396</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>234.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6311895393496495</v>
+        <v>0.3621054238497574</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6575201624300245</v>
+        <v>0.4725207044639621</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6281244061776988</v>
+        <v>0.407315449250238</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5285338025158116</v>
+        <v>0.33614434789551956</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.6538461538461537</v>
+        <v>0.9487179487179487</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.2651850845303982</v>
+        <v>0.22104526738747607</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>234.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6604052961100415</v>
+        <v>0.6291032608577569</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6562184083850345</v>
+        <v>0.6664310674294546</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6330832061118574</v>
+        <v>0.6349126730586265</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.555724101215968</v>
+        <v>0.5131091407386452</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>1.982905982905983</v>
+        <v>3.1880341880341883</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.3520476029846669</v>
+        <v>1.2356063926770713</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>234.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.6295831661852037</v>
+        <v>0.5750968708011696</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.628842919147151</v>
+        <v>0.6159593741487834</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.6012051685117025</v>
+        <v>0.5786075085912906</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.5236367571838022</v>
+        <v>0.4351529375292476</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.8717948717948718</v>
+        <v>3.6794871794871793</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.297329455997389</v>
+        <v>1.350507039516428</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>234.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6283369978843796</v>
+        <v>0.6284824481105388</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5969888986040102</v>
+        <v>0.5746281325256465</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.6153845443063369</v>
+        <v>0.483821741888366</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.5086524222047428</v>
+        <v>0.4796709608182113</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.6794871794871795</v>
+        <v>1.188034188034188</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.4397209112915033</v>
+        <v>1.527609279368957</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>234.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6032680836871145</v>
+        <v>0.5590422412383002</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5709666846495872</v>
+        <v>0.5169772778429056</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.587764375139788</v>
+        <v>0.4239074184789208</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.466111474206376</v>
+        <v>0.407752663794119</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.7435897435897436</v>
+        <v>2.1965811965811968</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.5621809677600396</v>
+        <v>1.4186938092062384</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>234.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5877245303028201</v>
+        <v>0.6926094275989991</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5642700206678949</v>
+        <v>0.6604459658681822</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.4741643057759502</v>
+        <v>0.6378824786061797</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.4508771043714409</v>
+        <v>0.5793468683958983</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.188034188034188</v>
+        <v>1.982905982905983</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.527609279368957</v>
+        <v>1.3520476029846669</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>234.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5860249401539068</v>
+        <v>0.6534425281552438</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5855613278727826</v>
+        <v>0.6211316372515783</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.5017544973100121</v>
+        <v>0.5938421741959177</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.45997104425794577</v>
+        <v>0.5361609571100302</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.1965811965811968</v>
+        <v>1.8717948717948718</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.4186938092062384</v>
+        <v>1.297329455997389</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.05128205128205128</v>
+        <v>0.7991452991452992</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.09829059829059829</v>
+        <v>0.20085470085470086</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.008547008547008548</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.36752136752136755</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.4017094017094017</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.07264957264957266</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.05128205128205128</v>
+        <v>0.7991452991452992</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.017094017094017096</v>
+        <v>0.021367521367521368</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.05982905982905983</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.3247863247863248</v>
+        <v>0.08547008547008547</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.16666666666666666</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.3803418803418803</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.021367521367521368</v>
+        <v>0.7991452991452992</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.0811965811965812</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.02564102564102564</v>
+        <v>0.029914529914529916</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.3547008547008547</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.44017094017094016</v>
+        <v>0.042735042735042736</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.07692307692307693</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.021367521367521368</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.02564102564102564</v>
+        <v>0.9487179487179487</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.08974358974358974</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.39316239316239315</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.0811965811965812</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.3888888888888889</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.2094017094017094</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.13247863247863248</v>
+        <v>0.09829059829059829</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.28205128205128205</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.21794871794871795</v>
+        <v>0.36752136752136755</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.1581196581196581</v>
+        <v>0.4017094017094017</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.07264957264957266</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.23076923076923078</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.10683760683760683</v>
+        <v>0.017094017094017096</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.3333333333333333</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.21794871794871795</v>
+        <v>0.3247863247863248</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.1111111111111111</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.3803418803418803</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.7991452991452992</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.021367521367521368</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="D45" t="n" s="799">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="E45" t="n" s="800">
+        <v>0.14957264957264957</v>
+      </c>
+      <c r="F45" t="n" s="801">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="G45" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="800">
-        <v>0.08547008547008547</v>
-      </c>
-      <c r="F45" t="n" s="801">
-        <v>0.06837606837606838</v>
-      </c>
-      <c r="G45" t="n" s="802">
-        <v>0.02564102564102564</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.7991452991452992</v>
+        <v>0.20512820512820512</v>
       </c>
       <c r="C46" t="n" s="798">
+        <v>0.1452991452991453</v>
+      </c>
+      <c r="D46" t="n" s="799">
+        <v>0.05982905982905983</v>
+      </c>
+      <c r="E46" t="n" s="800">
+        <v>0.42735042735042733</v>
+      </c>
+      <c r="F46" t="n" s="801">
+        <v>0.1623931623931624</v>
+      </c>
+      <c r="G46" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="799">
-        <v>0.029914529914529916</v>
-      </c>
-      <c r="E46" t="n" s="800">
-        <v>0.0641025641025641</v>
-      </c>
-      <c r="F46" t="n" s="801">
-        <v>0.042735042735042736</v>
-      </c>
-      <c r="G46" t="n" s="802">
-        <v>0.0641025641025641</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.5512820512820513</v>
+        <v>0.2094017094017094</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.11538461538461539</v>
+        <v>0.13247863247863248</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.05555555555555555</v>
+        <v>0.28205128205128205</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.14957264957264957</v>
+        <v>0.21794871794871795</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.1282051282051282</v>
+        <v>0.1581196581196581</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.20512820512820512</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.1452991452991453</v>
+        <v>0.10683760683760683</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.05982905982905983</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.42735042735042733</v>
+        <v>0.21794871794871795</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.1623931623931624</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
